--- a/MS/Integrate/From-Tomsk/MePhO2SOPh-v1-v5.xlsx
+++ b/MS/Integrate/From-Tomsk/MePhO2SOPh-v1-v5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MePhO2SOPh-v1-v5" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t xml:space="preserve"> v1</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t xml:space="preserve">С(mg/mL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C(mol/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -120,8 +129,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -204,12 +212,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -274,7 +282,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -315,21 +323,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -448,11 +441,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47075629"/>
-        <c:axId val="66529540"/>
+        <c:axId val="54076743"/>
+        <c:axId val="12796143"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47075629"/>
+        <c:axId val="54076743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,24 +465,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66529540"/>
+        <c:crossAx val="12796143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66529540"/>
+        <c:axId val="12796143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,19 +516,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47075629"/>
+        <c:crossAx val="54076743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -553,20 +554,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -582,7 +569,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -594,18 +581,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Chart Title</a:t>
@@ -614,12 +611,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -647,21 +638,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -790,11 +766,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8522790"/>
-        <c:axId val="66650226"/>
+        <c:axId val="77760083"/>
+        <c:axId val="63492080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8522790"/>
+        <c:axId val="77760083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,18 +793,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Время, с</a:t>
@@ -837,12 +823,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -858,24 +838,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66650226"/>
+        <c:crossAx val="63492080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66650226"/>
+        <c:axId val="63492080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,18 +882,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Концентрация, mg/mL</a:t>
@@ -918,12 +912,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -939,19 +927,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8522790"/>
+        <c:crossAx val="77760083"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -984,15 +976,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>390600</xdr:colOff>
+      <xdr:colOff>390960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>391680</xdr:colOff>
+      <xdr:colOff>391320</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1000,8 +992,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3127320" y="3000600"/>
-        <a:ext cx="5761080" cy="3228480"/>
+        <a:off x="3129480" y="3000600"/>
+        <a:ext cx="5762880" cy="3227760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1016,13 +1008,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>402480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>783000</xdr:colOff>
+      <xdr:colOff>782280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1030,8 +1022,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9327240" y="3292920"/>
-        <a:ext cx="4518000" cy="2743200"/>
+        <a:off x="9333000" y="3293280"/>
+        <a:ext cx="4519800" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1049,38 +1041,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="9.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,8 +1212,14 @@
       <c r="X2" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
@@ -1291,8 +1291,12 @@
         <f aca="false">(E3+I3+M3+Q3+U3)/5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z3" s="0" t="n">
+        <f aca="false">Y3*300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>30</v>
       </c>
@@ -1368,8 +1372,16 @@
         <f aca="false">0.000000000001159*W4*W4+0.000000486791534*W4</f>
         <v>0.00726670214563932</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y4" s="0" t="n">
+        <f aca="false">X4/248.0507</f>
+        <v>2.92952293448046E-005</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">Y4*300</f>
+        <v>0.00878856880344138</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>60</v>
       </c>
@@ -1445,8 +1457,16 @@
         <f aca="false">0.000000000001159*W5*W5+0.000000486791534*W5</f>
         <v>0.0127109890599868</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y5" s="0" t="n">
+        <f aca="false">X5/248.0507</f>
+        <v>5.12435121529058E-005</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <f aca="false">Y5*300</f>
+        <v>0.0153730536458717</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>90</v>
       </c>
@@ -1518,8 +1538,12 @@
         <f aca="false">(E6+I6+M6+Q6+U6)/5</f>
         <v>177385.44</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z6" s="0" t="n">
+        <f aca="false">Y6*300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>120</v>
       </c>
@@ -1595,8 +1619,16 @@
         <f aca="false">0.000000000001159*W7*W7+0.000000486791534*W7</f>
         <v>0.0247679312719999</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y7" s="0" t="n">
+        <f aca="false">X7/248.0507</f>
+        <v>9.98502776730721E-005</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <f aca="false">Y7*300</f>
+        <v>0.0299550833019216</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>150</v>
       </c>
@@ -1672,8 +1704,16 @@
         <f aca="false">0.000000000001159*W8*W8+0.000000486791534*W8</f>
         <v>0.0276665147100704</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y8" s="0" t="n">
+        <f aca="false">X8/248.0507</f>
+        <v>0.000111535725196786</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <f aca="false">Y8*300</f>
+        <v>0.0334607175590358</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>180</v>
       </c>
@@ -1749,8 +1789,16 @@
         <f aca="false">0.000000000001159*W9*W9+0.000000486791534*W9</f>
         <v>0.0300062732133782</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y9" s="0" t="n">
+        <f aca="false">X9/248.0507</f>
+        <v>0.000120968306936357</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">Y9*300</f>
+        <v>0.0362904920809071</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>240</v>
       </c>
@@ -1826,8 +1874,16 @@
         <f aca="false">0.000000000001159*W10*W10+0.000000486791534*W10</f>
         <v>0.0412526586727456</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y10" s="0" t="n">
+        <f aca="false">X10/248.0507</f>
+        <v>0.00016630736648897</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <f aca="false">Y10*300</f>
+        <v>0.049892209946691</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>300</v>
       </c>
@@ -1903,8 +1959,16 @@
         <f aca="false">0.000000000001159*W11*W11+0.000000486791534*W11</f>
         <v>0.0438532475677058</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y11" s="0" t="n">
+        <f aca="false">X11/248.0507</f>
+        <v>0.000176791468710654</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">Y11*300</f>
+        <v>0.0530374406131962</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>360</v>
       </c>
@@ -1980,8 +2044,16 @@
         <f aca="false">0.000000000001159*W12*W12+0.000000486791534*W12</f>
         <v>0.0545432338807348</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y12" s="0" t="n">
+        <f aca="false">X12/248.0507</f>
+        <v>0.000219887441884803</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">Y12*300</f>
+        <v>0.0659662325654409</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>450</v>
       </c>
@@ -2057,8 +2129,16 @@
         <f aca="false">0.000000000001159*W13*W13+0.000000486791534*W13</f>
         <v>0.0659025470826378</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y13" s="0" t="n">
+        <f aca="false">X13/248.0507</f>
+        <v>0.000265681762166516</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <f aca="false">Y13*300</f>
+        <v>0.0797045286499548</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>540</v>
       </c>
@@ -2134,8 +2214,16 @@
         <f aca="false">0.000000000001159*W14*W14+0.000000486791534*W14</f>
         <v>0.070345046845746</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y14" s="0" t="n">
+        <f aca="false">X14/248.0507</f>
+        <v>0.000283591406296156</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <f aca="false">Y14*300</f>
+        <v>0.0850774218888468</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>600</v>
       </c>
@@ -2211,8 +2299,16 @@
         <f aca="false">0.000000000001159*W15*W15+0.000000486791534*W15</f>
         <v>0.0797413603149453</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y15" s="0" t="n">
+        <f aca="false">X15/248.0507</f>
+        <v>0.000321472022916869</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <f aca="false">Y15*300</f>
+        <v>0.0964416068750607</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>750</v>
       </c>
@@ -2288,8 +2384,16 @@
         <f aca="false">0.000000000001159*W16*W16+0.000000486791534*W16</f>
         <v>0.0890539672324298</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y16" s="0" t="n">
+        <f aca="false">X16/248.0507</f>
+        <v>0.000359015182107649</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <f aca="false">Y16*300</f>
+        <v>0.107704554632295</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1050</v>
       </c>
@@ -2364,6 +2468,14 @@
       <c r="X17" s="0" t="n">
         <f aca="false">0.000000000001159*W17*W17+0.000000486791534*W17</f>
         <v>0.116042425371106</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <f aca="false">X17/248.0507</f>
+        <v>0.000467817367058855</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <f aca="false">Y17*300</f>
+        <v>0.140345210117657</v>
       </c>
     </row>
   </sheetData>
@@ -2385,11 +2497,11 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
@@ -2399,11 +2511,14 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2412,8 +2527,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
-        <f aca="false">0.000000000001159*A3*A3+0.000000486791534*A3</f>
-        <v>1.460478912E-005</v>
+        <v>2.92952293448046E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,22 +2535,23 @@
         <v>60</v>
       </c>
       <c r="B4" s="0" t="n">
-        <f aca="false">0.000000000001159*A4*A4+0.000000486791534*A4</f>
-        <v>2.921166444E-005</v>
+        <v>5.12435121529058E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>90</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>120</v>
       </c>
       <c r="B6" s="0" t="n">
-        <f aca="false">0.000000000001159*A6*A6+0.000000486791534*A6</f>
-        <v>5.843167368E-005</v>
+        <v>9.98502776730721E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,8 +2559,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="0" t="n">
-        <f aca="false">0.000000000001159*A7*A7+0.000000486791534*A7</f>
-        <v>7.30448076E-005</v>
+        <v>0.000111535725196786</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,8 +2567,7 @@
         <v>180</v>
       </c>
       <c r="B8" s="0" t="n">
-        <f aca="false">0.000000000001159*A8*A8+0.000000486791534*A8</f>
-        <v>8.766002772E-005</v>
+        <v>0.000120968306936357</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,8 +2575,7 @@
         <v>240</v>
       </c>
       <c r="B9" s="0" t="n">
-        <f aca="false">0.000000000001159*A9*A9+0.000000486791534*A9</f>
-        <v>0.00011689672656</v>
+        <v>0.00016630736648897</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,8 +2583,7 @@
         <v>300</v>
       </c>
       <c r="B10" s="0" t="n">
-        <f aca="false">0.000000000001159*A10*A10+0.000000486791534*A10</f>
-        <v>0.0001461417702</v>
+        <v>0.000176791468710654</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,8 +2591,7 @@
         <v>360</v>
       </c>
       <c r="B11" s="0" t="n">
-        <f aca="false">0.000000000001159*A11*A11+0.000000486791534*A11</f>
-        <v>0.00017539515864</v>
+        <v>0.000219887441884803</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,8 +2599,7 @@
         <v>450</v>
       </c>
       <c r="B12" s="0" t="n">
-        <f aca="false">0.000000000001159*A12*A12+0.000000486791534*A12</f>
-        <v>0.0002192908878</v>
+        <v>0.000265681762166516</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,8 +2607,7 @@
         <v>540</v>
       </c>
       <c r="B13" s="0" t="n">
-        <f aca="false">0.000000000001159*A13*A13+0.000000486791534*A13</f>
-        <v>0.00026320539276</v>
+        <v>0.000283591406296156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,8 +2615,7 @@
         <v>600</v>
       </c>
       <c r="B14" s="0" t="n">
-        <f aca="false">0.000000000001159*A14*A14+0.000000486791534*A14</f>
-        <v>0.0002924921604</v>
+        <v>0.000321472022916869</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,8 +2623,7 @@
         <v>750</v>
       </c>
       <c r="B15" s="0" t="n">
-        <f aca="false">0.000000000001159*A15*A15+0.000000486791534*A15</f>
-        <v>0.000365745588</v>
+        <v>0.000359015182107649</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,8 +2631,7 @@
         <v>1050</v>
       </c>
       <c r="B16" s="0" t="n">
-        <f aca="false">0.000000000001159*A16*A16+0.000000486791534*A16</f>
-        <v>0.0005124089082</v>
+        <v>0.000467817367058855</v>
       </c>
     </row>
   </sheetData>
